--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\ARGET_ATRP_MLP\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF7286-193D-476A-8FCF-152081ADE93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOE" sheetId="1" r:id="rId1"/>
     <sheet name="infos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -59,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +129,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -201,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,9 +250,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,14 +426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -451,7 +469,7 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>90.90909091</v>
+        <v>90.909090910000003</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -460,7 +478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -468,7 +486,7 @@
         <v>0.22</v>
       </c>
       <c r="E3">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -477,15 +495,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="E4">
-        <v>0.000831429</v>
+        <v>8.3142899999999996E-4</v>
       </c>
       <c r="G4">
         <v>0.95</v>
@@ -500,19 +518,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3000</v>
       </c>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\ARGET_ATRP_MLP\datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF7286-193D-476A-8FCF-152081ADE93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="DOE" sheetId="1" r:id="rId1"/>
     <sheet name="infos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -65,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,21 +123,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +167,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,10 +235,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,16 +410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -469,7 +451,7 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>90.909090910000003</v>
+        <v>90.91</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -478,7 +460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -486,7 +468,7 @@
         <v>0.22</v>
       </c>
       <c r="E3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -495,15 +477,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="E4">
-        <v>8.3142899999999996E-4</v>
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>
@@ -518,19 +500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>3000</v>
       </c>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -448,10 +448,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>90.91</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -465,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -482,10 +482,10 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E4">
-        <v>0.00083</v>
+        <v>0.0001</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -514,7 +514,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -448,10 +448,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>90.91</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -465,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -482,10 +482,10 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.0001</v>
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -448,10 +448,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>90.91</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -465,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="G3">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -448,10 +448,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>90.91</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -465,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="E3">
-        <v>0.001</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -451,7 +451,7 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>90.91</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
         <v>0.02</v>
@@ -485,7 +485,7 @@
         <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.00083</v>
+        <v>0.0002</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -465,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -485,7 +485,7 @@
         <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.0002</v>
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -447,10 +447,10 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
       <c r="G2">
@@ -464,11 +464,11 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.001</v>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -481,11 +481,11 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>0.002</v>
-      </c>
-      <c r="E4">
-        <v>0.00083</v>
+      <c r="B4">
+        <v>0.001</v>
+      </c>
+      <c r="C4">
+        <v>0.0001</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -451,7 +451,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -447,11 +447,11 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -464,11 +464,11 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.001</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -481,11 +481,11 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.001</v>
-      </c>
-      <c r="C4">
-        <v>0.0001</v>
+      <c r="D4">
+        <v>0.002</v>
+      </c>
+      <c r="E4">
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -50,7 +50,7 @@
     <t>POX/M</t>
   </si>
   <si>
-    <t>Continuous</t>
+    <t>Discrete</t>
   </si>
   <si>
     <t>Number of Simulations</t>
@@ -447,11 +447,14 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
+      <c r="D2">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>0.06</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -464,11 +467,14 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
+      <c r="D3">
+        <v>0.13</v>
+      </c>
+      <c r="E3">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>5.999999999999999E-05</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -481,11 +487,14 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.001</v>
-      </c>
-      <c r="C4">
-        <v>0.0001</v>
+      <c r="D4">
+        <v>0.0013</v>
+      </c>
+      <c r="E4">
+        <v>0.0007</v>
+      </c>
+      <c r="F4">
+        <v>6E-07</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -523,7 +523,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -41,13 +41,13 @@
     <t>Variable Type</t>
   </si>
   <si>
-    <t>POX/C</t>
-  </si>
-  <si>
-    <t>C/A</t>
-  </si>
-  <si>
-    <t>POX/M</t>
+    <t>Evaporator Temperature</t>
+  </si>
+  <si>
+    <t>Condenser Temperature</t>
+  </si>
+  <si>
+    <t>Adiabatic Efficiency</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -448,13 +448,13 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -468,13 +468,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.13</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>0.07000000000000001</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>5.999999999999999E-05</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.0013</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.0007</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>6E-07</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0.95</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -488,10 +488,10 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -494,7 +494,7 @@
         <v>70</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Variable Name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Adiabatic Efficiency</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +463,7 @@
         <v>0.95</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -480,7 +483,7 @@
         <v>0.95</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -500,7 +503,27 @@
         <v>0.95</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
+      </c>
+      <c r="D5">
+        <v>18000</v>
+      </c>
+      <c r="E5">
+        <v>9000</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>0.95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Variable Name</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>Continuous</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -450,14 +453,11 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="B2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -483,7 +483,7 @@
         <v>0.95</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -503,7 +503,7 @@
         <v>0.95</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -523,7 +523,7 @@
         <v>0.95</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -517,7 +517,7 @@
         <v>9000</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>0.95</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Setup.xlsx
+++ b/datasets/DOE_Setup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Variable Name</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Capacity</t>
-  </si>
-  <si>
-    <t>Continuous</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -453,11 +450,14 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -471,10 +471,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -483,7 +483,7 @@
         <v>0.95</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -503,7 +503,7 @@
         <v>0.95</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -511,19 +511,19 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="E5">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0.95</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
